--- a/Documentos/Dados obtidos e Questionário/resultado.xlsx
+++ b/Documentos/Dados obtidos e Questionário/resultado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.fonseca\Documents\TCC_Interpretador\TCC_Interpretador\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.fonseca\Documents\TCC_Interpretador\TCC_Interpretador\Documentos\Dados obtidos e Questionário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB581A7B-20D9-4554-99D4-34DEE9345D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE40F3BB-0D30-47A6-AB60-BB5E1F5303E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2430" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,20 +443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1580,7 +1580,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -5641,13 +5641,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>386729</xdr:colOff>
+      <xdr:colOff>240197</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>25812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>48037</xdr:rowOff>
     </xdr:to>
@@ -5942,8 +5942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,20 +5958,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="5"/>
@@ -6209,10 +6209,10 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="26"/>
       <c r="H25" s="12" t="s">
         <v>10</v>
       </c>
@@ -6221,14 +6221,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="4"/>
       <c r="H26" s="13" t="s">
         <v>11</v>
@@ -6238,14 +6238,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="4"/>
       <c r="H27" s="11" t="s">
         <v>13</v>
@@ -6255,26 +6255,26 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="19"/>
       <c r="H28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="3">
         <v>7</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="18"/>
       <c r="H29" s="12" t="s">
         <v>10</v>
       </c>
@@ -6305,29 +6305,29 @@
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="23"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="27"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="H56" s="18" t="s">
+      <c r="C56" s="28"/>
+      <c r="H56" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="19"/>
+      <c r="I56" s="26"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="26"/>
       <c r="H57" s="12" t="s">
         <v>10</v>
       </c>
@@ -6364,14 +6364,14 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="H60" s="16" t="s">
+      <c r="C60" s="26"/>
+      <c r="H60" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I60" s="16"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -6416,10 +6416,10 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="19"/>
+      <c r="C64" s="26"/>
       <c r="H64" s="11" t="s">
         <v>20</v>
       </c>
@@ -6434,10 +6434,10 @@
       <c r="C65" s="3">
         <v>5</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="16"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
@@ -6468,10 +6468,10 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="19"/>
+      <c r="C68" s="26"/>
       <c r="H68" s="11" t="s">
         <v>13</v>
       </c>
@@ -6486,10 +6486,10 @@
       <c r="C69" s="3">
         <v>6</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I69" s="16"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
@@ -6520,10 +6520,10 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="19"/>
+      <c r="C72" s="26"/>
       <c r="H72" s="11" t="s">
         <v>13</v>
       </c>
@@ -6538,10 +6538,10 @@
       <c r="C73" s="3">
         <v>6</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
@@ -6572,10 +6572,10 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="19"/>
+      <c r="C76" s="26"/>
       <c r="H76" s="11" t="s">
         <v>13</v>
       </c>
@@ -6608,10 +6608,10 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
@@ -6639,23 +6639,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H69:I69"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Dados obtidos e Questionário/resultado.xlsx
+++ b/Documentos/Dados obtidos e Questionário/resultado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.fonseca\Documents\TCC_Interpretador\TCC_Interpretador\Documentos\Dados obtidos e Questionário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE40F3BB-0D30-47A6-AB60-BB5E1F5303E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8BADA-236D-4DF6-83DD-8BEC083CECC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>Máteria COMPILADORES</t>
-  </si>
-  <si>
     <t>Talvez</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>5.Expêriencia de programação</t>
-  </si>
-  <si>
-    <t>6.Nivel de dificuldade da Máteria Compiladores</t>
   </si>
   <si>
     <t>7.Compreender a matéria com facilidade</t>
@@ -138,16 +132,10 @@
     <t>20.A árvore sintática ajuda</t>
   </si>
   <si>
-    <t>21.A árvore e facil de entender</t>
-  </si>
-  <si>
     <t>22.A tabela de símbolos é clara de compeender</t>
   </si>
   <si>
     <t>23.A tabela de símbolos ajuda</t>
-  </si>
-  <si>
-    <t>24.Qual parte da framework chamou mais a atenção</t>
   </si>
   <si>
     <t>25.Ele ajudaria futuros alunos</t>
@@ -156,10 +144,22 @@
     <t>26.Essa ferramenta te ajudaria no início</t>
   </si>
   <si>
-    <t>27.Você indicaria estta fremawork</t>
+    <t xml:space="preserve">Obs. As questões estão de forma resumida, é indicado que use como guia a numeração. </t>
   </si>
   <si>
-    <t xml:space="preserve">Obs. As questões estão de forma resumida, é indicado que use como guia a numeração. </t>
+    <t>24.Qual parte do framework chamou mais a atenção</t>
+  </si>
+  <si>
+    <t>27.Você indicaria a fremawork</t>
+  </si>
+  <si>
+    <t>21.A árvore e fácil de entender</t>
+  </si>
+  <si>
+    <t>Matéria COMPILADORES</t>
+  </si>
+  <si>
+    <t>6.Nivel de dificuldade da Matéria Compiladores</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,11 +422,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,16 +434,22 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +515,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Experiência profissional em desenvolvimento</a:t>
+              <a:t>Experiência profissional em desenvolvimento ?</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2375,6 +2381,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74843593691998911"/>
+          <c:y val="0.32699004144647381"/>
+          <c:w val="0.20661813974997012"/>
+          <c:h val="0.35418967665236262"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2393,7 +2409,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -5940,10 +5956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,27 +5974,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="B1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="24"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H3" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -6000,7 +6016,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -6014,7 +6030,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -6049,7 +6065,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -6058,13 +6074,13 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="H12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -6098,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="3">
         <v>3</v>
@@ -6112,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -6140,25 +6156,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>12</v>
+      <c r="B20" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
       <c r="H20" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>22</v>
+      <c r="B21" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="10"/>
       <c r="H21" s="12" t="s">
@@ -6190,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -6203,14 +6219,14 @@
       <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>37</v>
+      <c r="H24" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="26"/>
       <c r="H25" s="12" t="s">
@@ -6248,7 +6264,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="4"/>
       <c r="H27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="3">
         <v>4</v>
@@ -6257,12 +6273,12 @@
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="19"/>
       <c r="H28" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I28" s="10"/>
     </row>
@@ -6298,34 +6314,37 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H37" s="17"/>
     </row>
+    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="U38" s="17"/>
+    </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H55" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="24"/>
+      <c r="H55" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="28"/>
+      <c r="B56" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="32"/>
       <c r="H56" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" s="26"/>
       <c r="H57" s="12" t="s">
@@ -6357,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
@@ -6365,13 +6384,13 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="H60" s="30" t="s">
+      <c r="H60" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I60" s="30"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -6381,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="3">
         <v>2</v>
@@ -6395,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" s="3">
         <v>3</v>
@@ -6403,13 +6422,13 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
@@ -6417,11 +6436,11 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64" s="26"/>
       <c r="H64" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
@@ -6434,10 +6453,10 @@
       <c r="C65" s="3">
         <v>5</v>
       </c>
-      <c r="H65" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="30"/>
+      <c r="H65" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="28"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
@@ -6455,7 +6474,7 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3">
         <v>2</v>
@@ -6469,11 +6488,11 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C68" s="26"/>
       <c r="H68" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
@@ -6486,10 +6505,10 @@
       <c r="C69" s="3">
         <v>6</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69" s="30"/>
+      <c r="H69" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="28"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
@@ -6507,7 +6526,7 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -6521,11 +6540,11 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C72" s="26"/>
       <c r="H72" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -6538,10 +6557,10 @@
       <c r="C73" s="3">
         <v>6</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="30"/>
+      <c r="H73" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="28"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
@@ -6559,7 +6578,7 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -6573,11 +6592,11 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C76" s="26"/>
       <c r="H76" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -6601,17 +6620,17 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="30"/>
+      <c r="B80" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="28"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
@@ -6631,7 +6650,7 @@
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>

--- a/Documentos/Dados obtidos e Questionário/resultado.xlsx
+++ b/Documentos/Dados obtidos e Questionário/resultado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.fonseca\Documents\TCC_Interpretador\TCC_Interpretador\Documentos\Dados obtidos e Questionário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8BADA-236D-4DF6-83DD-8BEC083CECC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8013FCE-1627-4896-B13D-3D8CBEF41FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,8 +425,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,11 +437,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,7 +1684,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>O que chamou mais atenção no interpretador</a:t>
+              <a:t>O que chamou mais atenção no interpretador ?</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5958,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I64" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,17 +5974,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H3" s="22" t="s">
@@ -6225,10 +6225,10 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="H25" s="12" t="s">
         <v>10</v>
       </c>
@@ -6272,10 +6272,10 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="19"/>
       <c r="H28" s="10" t="s">
         <v>35</v>
@@ -6337,16 +6337,16 @@
         <v>13</v>
       </c>
       <c r="C56" s="32"/>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I56" s="26"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="27"/>
       <c r="H57" s="12" t="s">
         <v>10</v>
       </c>
@@ -6383,14 +6383,14 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="H60" s="27" t="s">
+      <c r="C60" s="27"/>
+      <c r="H60" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I60" s="28"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
@@ -6435,10 +6435,10 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="26"/>
+      <c r="C64" s="27"/>
       <c r="H64" s="11" t="s">
         <v>19</v>
       </c>
@@ -6453,10 +6453,10 @@
       <c r="C65" s="3">
         <v>5</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I65" s="28"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
@@ -6487,10 +6487,10 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="26"/>
+      <c r="C68" s="27"/>
       <c r="H68" s="11" t="s">
         <v>12</v>
       </c>
@@ -6505,10 +6505,10 @@
       <c r="C69" s="3">
         <v>6</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I69" s="28"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
@@ -6539,10 +6539,10 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="26"/>
+      <c r="C72" s="27"/>
       <c r="H72" s="11" t="s">
         <v>12</v>
       </c>
@@ -6557,10 +6557,10 @@
       <c r="C73" s="3">
         <v>6</v>
       </c>
-      <c r="H73" s="27" t="s">
+      <c r="H73" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="28"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
@@ -6591,10 +6591,10 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="26"/>
+      <c r="C76" s="27"/>
       <c r="H76" s="11" t="s">
         <v>12</v>
       </c>
@@ -6627,10 +6627,10 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="28"/>
+      <c r="C80" s="24"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
@@ -6658,12 +6658,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B76:C76"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="H60:I60"/>
@@ -6675,6 +6669,12 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
